--- a/data/d_cases_by_hb.xlsx
+++ b/data/d_cases_by_hb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\githome\TTS-1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2242DE90-F8E6-4838-81D9-F9131B648D31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC19DEC-80EE-47D6-9DAC-7FDF22D28134}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="2625" windowWidth="21075" windowHeight="13575" xr2:uid="{3A2DCE9A-1180-4B87-A40E-6C8795E2EB8B}"/>
+    <workbookView xWindow="1320" yWindow="2475" windowWidth="19875" windowHeight="11835" xr2:uid="{3A2DCE9A-1180-4B87-A40E-6C8795E2EB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1 - Cumulative cases" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
     <t>NHS Ayrshire &amp; Arran</t>
   </si>
   <si>
-    <t>Date Notified</t>
+    <t>Date notified</t>
   </si>
 </sst>
 </file>
@@ -469,13 +469,13 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:Q279"/>
+  <dimension ref="A1:Q280"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B244" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B252" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B279" sqref="B279"/>
+      <selection pane="bottomRight" activeCell="B280" sqref="B280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2344,7 +2344,7 @@
         <v>82.161592449756867</v>
       </c>
       <c r="O37" s="3">
-        <v>0</v>
+        <v>22.45508982035928</v>
       </c>
       <c r="P37" s="3">
         <v>41.092380063331689</v>
@@ -2394,7 +2394,7 @@
         <v>82.880206960979237</v>
       </c>
       <c r="O38" s="3">
-        <v>0</v>
+        <v>22.45508982035928</v>
       </c>
       <c r="P38" s="3">
         <v>40.378525799425255</v>
@@ -2444,7 +2444,7 @@
         <v>74.97544733753324</v>
       </c>
       <c r="O39" s="3">
-        <v>0</v>
+        <v>22.45508982035928</v>
       </c>
       <c r="P39" s="3">
         <v>38.548130250947231</v>
@@ -2494,7 +2494,7 @@
         <v>74.25683282631087</v>
       </c>
       <c r="O40" s="3">
-        <v>0</v>
+        <v>22.45508982035928</v>
       </c>
       <c r="P40" s="3">
         <v>38.969121227097176</v>
@@ -2544,7 +2544,7 @@
         <v>74.735909167125783</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>22.45508982035928</v>
       </c>
       <c r="P41" s="3">
         <v>39.95753482327531</v>
@@ -2594,7 +2594,7 @@
         <v>64.67530601001269</v>
       </c>
       <c r="O42" s="3">
-        <v>0</v>
+        <v>22.45508982035928</v>
       </c>
       <c r="P42" s="3">
         <v>39.261984514853658</v>
@@ -2644,7 +2644,7 @@
         <v>63.956691498790335</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>22.45508982035928</v>
       </c>
       <c r="P43" s="3">
         <v>39.060641004521074</v>
@@ -5594,7 +5594,7 @@
         <v>2.3953817040745444</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>3.7425149700598803</v>
       </c>
       <c r="P102" s="3">
         <v>2.1232588362345104</v>
@@ -5644,7 +5644,7 @@
         <v>2.15584353366709</v>
       </c>
       <c r="O103" s="3">
-        <v>0</v>
+        <v>3.7425149700598803</v>
       </c>
       <c r="P103" s="3">
         <v>2.1415627917192905</v>
@@ -5694,7 +5694,7 @@
         <v>0.71861451122236331</v>
       </c>
       <c r="O104" s="3">
-        <v>0</v>
+        <v>3.7425149700598803</v>
       </c>
       <c r="P104" s="3">
         <v>2.3062983910823127</v>
@@ -5744,7 +5744,7 @@
         <v>0.47907634081490885</v>
       </c>
       <c r="O105" s="3">
-        <v>0</v>
+        <v>3.7425149700598803</v>
       </c>
       <c r="P105" s="3">
         <v>2.1964746581736314</v>
@@ -5794,7 +5794,7 @@
         <v>0.47907634081490885</v>
       </c>
       <c r="O106" s="3">
-        <v>0</v>
+        <v>3.7425149700598803</v>
       </c>
       <c r="P106" s="3">
         <v>2.1964746581736314</v>
@@ -5844,7 +5844,7 @@
         <v>0.23953817040745443</v>
       </c>
       <c r="O107" s="3">
-        <v>0</v>
+        <v>3.7425149700598803</v>
       </c>
       <c r="P107" s="3">
         <v>2.2879944355975326</v>
@@ -5894,7 +5894,7 @@
         <v>0.23953817040745443</v>
       </c>
       <c r="O108" s="3">
-        <v>0</v>
+        <v>3.7425149700598803</v>
       </c>
       <c r="P108" s="3">
         <v>2.3062983910823127</v>
@@ -9644,7 +9644,7 @@
         <v>13.414137542817448</v>
       </c>
       <c r="O183" s="3">
-        <v>0</v>
+        <v>7.4850299401197606</v>
       </c>
       <c r="P183" s="3">
         <v>17.224022111178225</v>
@@ -9694,7 +9694,7 @@
         <v>12.695523031595085</v>
       </c>
       <c r="O184" s="3">
-        <v>0</v>
+        <v>7.4850299401197606</v>
       </c>
       <c r="P184" s="3">
         <v>18.194131751871581</v>
@@ -9744,7 +9744,7 @@
         <v>12.935061202002538</v>
       </c>
       <c r="O185" s="3">
-        <v>0</v>
+        <v>7.4850299401197606</v>
       </c>
       <c r="P185" s="3">
         <v>19.7499679680779</v>
@@ -9794,7 +9794,7 @@
         <v>11.258294009150358</v>
       </c>
       <c r="O186" s="3">
-        <v>0</v>
+        <v>7.4850299401197606</v>
       </c>
       <c r="P186" s="3">
         <v>19.493712591290979</v>
@@ -9844,7 +9844,7 @@
         <v>9.8210649867056308</v>
       </c>
       <c r="O187" s="3">
-        <v>0</v>
+        <v>7.4850299401197606</v>
       </c>
       <c r="P187" s="3">
         <v>19.896399611956145</v>
@@ -9894,7 +9894,7 @@
         <v>10.539679497927995</v>
       </c>
       <c r="O188" s="3">
-        <v>0</v>
+        <v>7.4850299401197606</v>
       </c>
       <c r="P188" s="3">
         <v>19.951311478410485</v>
@@ -9944,7 +9944,7 @@
         <v>11.018755838742903</v>
       </c>
       <c r="O189" s="3">
-        <v>0</v>
+        <v>7.4850299401197606</v>
       </c>
       <c r="P189" s="3">
         <v>21.049548807497299</v>
@@ -10294,7 +10294,7 @@
         <v>8.6233741346683601</v>
       </c>
       <c r="O196" s="3">
-        <v>0</v>
+        <v>3.7425149700598803</v>
       </c>
       <c r="P196" s="3">
         <v>28.07826771365292</v>
@@ -10344,7 +10344,7 @@
         <v>11.497832179557813</v>
       </c>
       <c r="O197" s="3">
-        <v>0</v>
+        <v>3.7425149700598803</v>
       </c>
       <c r="P197" s="3">
         <v>28.590778467226766</v>
@@ -10394,7 +10394,7 @@
         <v>12.45598486118763</v>
       </c>
       <c r="O198" s="3">
-        <v>0</v>
+        <v>3.7425149700598803</v>
       </c>
       <c r="P198" s="3">
         <v>30.951988724763421</v>
@@ -10444,7 +10444,7 @@
         <v>13.653675713224903</v>
       </c>
       <c r="O199" s="3">
-        <v>0</v>
+        <v>3.7425149700598803</v>
       </c>
       <c r="P199" s="3">
         <v>30.970292680248203</v>
@@ -10494,7 +10494,7 @@
         <v>15.330442906077083</v>
       </c>
       <c r="O200" s="3">
-        <v>0</v>
+        <v>3.7425149700598803</v>
       </c>
       <c r="P200" s="3">
         <v>34.356524444932553</v>
@@ -10544,7 +10544,7 @@
         <v>16.049057417299448</v>
       </c>
       <c r="O201" s="3">
-        <v>0</v>
+        <v>3.7425149700598803</v>
       </c>
       <c r="P201" s="3">
         <v>36.479783281167059</v>
@@ -10594,7 +10594,7 @@
         <v>16.528133758114354</v>
       </c>
       <c r="O202" s="3">
-        <v>0</v>
+        <v>3.7425149700598803</v>
       </c>
       <c r="P202" s="3">
         <v>40.488349532333935</v>
@@ -10694,7 +10694,7 @@
         <v>21.558435336670897</v>
       </c>
       <c r="O204" s="3">
-        <v>0</v>
+        <v>11.22754491017964</v>
       </c>
       <c r="P204" s="3">
         <v>50.189445939267479</v>
@@ -10744,7 +10744,7 @@
         <v>37.847030924377798</v>
       </c>
       <c r="O205" s="3">
-        <v>0</v>
+        <v>11.22754491017964</v>
       </c>
       <c r="P205" s="3">
         <v>56.852085735727492</v>
@@ -10794,7 +10794,7 @@
         <v>36.888878242747985</v>
       </c>
       <c r="O206" s="3">
-        <v>0</v>
+        <v>26.197604790419163</v>
       </c>
       <c r="P206" s="3">
         <v>58.66417732872074</v>
@@ -10844,7 +10844,7 @@
         <v>38.326107265192711</v>
       </c>
       <c r="O207" s="3">
-        <v>0</v>
+        <v>59.880239520958085</v>
       </c>
       <c r="P207" s="3">
         <v>58.060146797722986</v>
@@ -10894,7 +10894,7 @@
         <v>48.626248592713246</v>
       </c>
       <c r="O208" s="3">
-        <v>0</v>
+        <v>67.365269461077844</v>
       </c>
       <c r="P208" s="3">
         <v>65.802719967785038</v>
@@ -10944,7 +10944,7 @@
         <v>52.93793566004743</v>
       </c>
       <c r="O209" s="3">
-        <v>0</v>
+        <v>74.850299401197603</v>
       </c>
       <c r="P209" s="3">
         <v>68.621529112441195</v>
@@ -10994,7 +10994,7 @@
         <v>52.698397489639973</v>
       </c>
       <c r="O210" s="3">
-        <v>0</v>
+        <v>82.335329341317362</v>
       </c>
       <c r="P210" s="3">
         <v>72.337232075851588</v>
@@ -11044,7 +11044,7 @@
         <v>52.93793566004743</v>
       </c>
       <c r="O211" s="3">
-        <v>0</v>
+        <v>97.305389221556879</v>
       </c>
       <c r="P211" s="3">
         <v>76.309190416048907</v>
@@ -11094,7 +11094,7 @@
         <v>41.200565310082162</v>
       </c>
       <c r="O212" s="3">
-        <v>0</v>
+        <v>116.01796407185628</v>
       </c>
       <c r="P212" s="3">
         <v>77.224388190287925</v>
@@ -11144,7 +11144,7 @@
         <v>46.709943229453614</v>
       </c>
       <c r="O213" s="3">
-        <v>0</v>
+        <v>101.04790419161677</v>
       </c>
       <c r="P213" s="3">
         <v>84.802225760986943</v>
@@ -11194,7 +11194,7 @@
         <v>51.261168467195247</v>
       </c>
       <c r="O214" s="3">
-        <v>0</v>
+        <v>78.592814371257489</v>
       </c>
       <c r="P214" s="3">
         <v>93.496604616257571</v>
@@ -11244,7 +11244,7 @@
         <v>45.751790547823795</v>
       </c>
       <c r="O215" s="3">
-        <v>0</v>
+        <v>82.335329341317362</v>
       </c>
       <c r="P215" s="3">
         <v>93.386780883348891</v>
@@ -11294,7 +11294,7 @@
         <v>48.14717225189834</v>
       </c>
       <c r="O216" s="3">
-        <v>0</v>
+        <v>86.077844311377248</v>
       </c>
       <c r="P216" s="3">
         <v>100.96461845404792</v>
@@ -11344,7 +11344,7 @@
         <v>55.093779193714518</v>
       </c>
       <c r="O217" s="3">
-        <v>0</v>
+        <v>78.592814371257489</v>
       </c>
       <c r="P217" s="3">
         <v>107.53573847308404</v>
@@ -11394,7 +11394,7 @@
         <v>57.968237238603969</v>
       </c>
       <c r="O218" s="3">
-        <v>0</v>
+        <v>63.622754491017965</v>
       </c>
       <c r="P218" s="3">
         <v>116.15690150641554</v>
@@ -11444,7 +11444,7 @@
         <v>64.435767839605248</v>
       </c>
       <c r="O219" s="3">
-        <v>0</v>
+        <v>44.91017964071856</v>
       </c>
       <c r="P219" s="3">
         <v>120.6413706001867</v>
@@ -11494,7 +11494,7 @@
         <v>66.112535032457416</v>
       </c>
       <c r="O220" s="3">
-        <v>0</v>
+        <v>48.65269461077844</v>
       </c>
       <c r="P220" s="3">
         <v>124.26555378617319</v>
@@ -11544,7 +11544,7 @@
         <v>68.986993077346881</v>
       </c>
       <c r="O221" s="3">
-        <v>0</v>
+        <v>41.167664670658681</v>
       </c>
       <c r="P221" s="3">
         <v>129.09779803415518</v>
@@ -11594,7 +11594,7 @@
         <v>75.454523678348139</v>
       </c>
       <c r="O222" s="3">
-        <v>0</v>
+        <v>29.940119760479043</v>
       </c>
       <c r="P222" s="3">
         <v>138.19486391009096</v>
@@ -11644,7 +11644,7 @@
         <v>79.287134404867416</v>
       </c>
       <c r="O223" s="3">
-        <v>0</v>
+        <v>18.712574850299401</v>
       </c>
       <c r="P223" s="3">
         <v>145.05884721688358</v>
@@ -11694,7 +11694,7 @@
         <v>87.670970369128327</v>
       </c>
       <c r="O224" s="3">
-        <v>0</v>
+        <v>18.712574850299401</v>
       </c>
       <c r="P224" s="3">
         <v>150.98932879395238</v>
@@ -11744,7 +11744,7 @@
         <v>92.940810118092315</v>
       </c>
       <c r="O225" s="3">
-        <v>0</v>
+        <v>11.22754491017964</v>
       </c>
       <c r="P225" s="3">
         <v>150.07413101971335</v>
@@ -11794,7 +11794,7 @@
         <v>87.910508539535769</v>
       </c>
       <c r="O226" s="3">
-        <v>0</v>
+        <v>22.45508982035928</v>
       </c>
       <c r="P226" s="3">
         <v>152.96615598630865</v>
@@ -11844,7 +11844,7 @@
         <v>80.724363427312142</v>
       </c>
       <c r="O227" s="3">
-        <v>0</v>
+        <v>18.712574850299401</v>
       </c>
       <c r="P227" s="3">
         <v>141.25162447604927</v>
@@ -11894,7 +11894,7 @@
         <v>81.682516108941954</v>
       </c>
       <c r="O228" s="3">
-        <v>0</v>
+        <v>14.970059880239521</v>
       </c>
       <c r="P228" s="3">
         <v>141.83735105156225</v>
@@ -11944,7 +11944,7 @@
         <v>83.838359642609049</v>
       </c>
       <c r="O229" s="3">
-        <v>0</v>
+        <v>14.970059880239521</v>
       </c>
       <c r="P229" s="3">
         <v>144.74767997364231</v>
@@ -11994,7 +11994,7 @@
         <v>90.305890243610321</v>
       </c>
       <c r="O230" s="3">
-        <v>0</v>
+        <v>22.45508982035928</v>
       </c>
       <c r="P230" s="3">
         <v>150.42190617392419</v>
@@ -12044,7 +12044,7 @@
         <v>96.773420844611593</v>
       </c>
       <c r="O231" s="3">
-        <v>0</v>
+        <v>22.45508982035928</v>
       </c>
       <c r="P231" s="3">
         <v>157.02963410392985</v>
@@ -12094,7 +12094,7 @@
         <v>98.450188037463775</v>
       </c>
       <c r="O232" s="3">
-        <v>0</v>
+        <v>22.45508982035928</v>
       </c>
       <c r="P232" s="3">
         <v>160.78194497830981</v>
@@ -12144,7 +12144,7 @@
         <v>107.55263851294704</v>
       </c>
       <c r="O233" s="3">
-        <v>0</v>
+        <v>22.45508982035928</v>
       </c>
       <c r="P233" s="3">
         <v>165.65079713726135</v>
@@ -12194,7 +12194,7 @@
         <v>116.89462715883776</v>
       </c>
       <c r="O234" s="3">
-        <v>0</v>
+        <v>22.45508982035928</v>
       </c>
       <c r="P234" s="3">
         <v>183.71680120073947</v>
@@ -12244,7 +12244,7 @@
         <v>119.52954703331976</v>
       </c>
       <c r="O235" s="3">
-        <v>0</v>
+        <v>22.45508982035928</v>
       </c>
       <c r="P235" s="3">
         <v>186.07801145827614</v>
@@ -12294,7 +12294,7 @@
         <v>119.52954703331976</v>
       </c>
       <c r="O236" s="3">
-        <v>0</v>
+        <v>22.45508982035928</v>
       </c>
       <c r="P236" s="3">
         <v>183.71680120073947</v>
@@ -12344,7 +12344,7 @@
         <v>117.37370349965266</v>
       </c>
       <c r="O237" s="3">
-        <v>0</v>
+        <v>14.970059880239521</v>
       </c>
       <c r="P237" s="3">
         <v>173.88757710541248</v>
@@ -12394,7 +12394,7 @@
         <v>104.91771863846503</v>
       </c>
       <c r="O238" s="3">
-        <v>0</v>
+        <v>18.712574850299401</v>
       </c>
       <c r="P238" s="3">
         <v>163.1980671023008</v>
@@ -12444,7 +12444,7 @@
         <v>109.22940570579922</v>
       </c>
       <c r="O239" s="3">
-        <v>0</v>
+        <v>14.970059880239521</v>
       </c>
       <c r="P239" s="3">
         <v>161.00159244412717</v>
@@ -12494,7 +12494,7 @@
         <v>102.04326059357558</v>
       </c>
       <c r="O240" s="3">
-        <v>0</v>
+        <v>3.7425149700598803</v>
       </c>
       <c r="P240" s="3">
         <v>154.92467922318014</v>
@@ -12544,7 +12544,7 @@
         <v>104.67818046805759</v>
       </c>
       <c r="O241" s="3">
-        <v>0</v>
+        <v>3.7425149700598803</v>
       </c>
       <c r="P241" s="3">
         <v>152.08756612303918</v>
@@ -12594,7 +12594,7 @@
         <v>97.971111696648862</v>
       </c>
       <c r="O242" s="3">
-        <v>0</v>
+        <v>3.7425149700598803</v>
       </c>
       <c r="P242" s="3">
         <v>148.95758973514177</v>
@@ -12644,7 +12644,7 @@
         <v>94.857115481351954</v>
       </c>
       <c r="O243" s="3">
-        <v>0</v>
+        <v>3.7425149700598803</v>
       </c>
       <c r="P243" s="3">
         <v>142.95389233613383</v>
@@ -12694,7 +12694,7 @@
         <v>93.419886458907229</v>
       </c>
       <c r="O244" s="3">
-        <v>0</v>
+        <v>3.7425149700598803</v>
       </c>
       <c r="P244" s="3">
         <v>147.18210605311808</v>
@@ -12894,7 +12894,7 @@
         <v>103.72002778642776</v>
       </c>
       <c r="O248" s="3">
-        <v>0</v>
+        <v>3.7425149700598803</v>
       </c>
       <c r="P248" s="3">
         <v>153.42375487342815</v>
@@ -12944,7 +12944,7 @@
         <v>103.48048961602031</v>
       </c>
       <c r="O249" s="3">
-        <v>0</v>
+        <v>3.7425149700598803</v>
       </c>
       <c r="P249" s="3">
         <v>152.70990060952172</v>
@@ -12994,7 +12994,7 @@
         <v>103.24095144561286</v>
       </c>
       <c r="O250" s="3">
-        <v>0</v>
+        <v>3.7425149700598803</v>
       </c>
       <c r="P250" s="3">
         <v>149.65314004356341</v>
@@ -13044,7 +13044,7 @@
         <v>103.72002778642776</v>
       </c>
       <c r="O251" s="3">
-        <v>0</v>
+        <v>7.4850299401197606</v>
       </c>
       <c r="P251" s="3">
         <v>146.50485970018121</v>
@@ -13094,7 +13094,7 @@
         <v>102.04326059357558</v>
       </c>
       <c r="O252" s="3">
-        <v>0</v>
+        <v>11.22754491017964</v>
       </c>
       <c r="P252" s="3">
         <v>146.43164387824208</v>
@@ -13144,7 +13144,7 @@
         <v>111.62478740987376</v>
       </c>
       <c r="O253" s="3">
-        <v>0</v>
+        <v>18.712574850299401</v>
       </c>
       <c r="P253" s="3">
         <v>151.64827119140446</v>
@@ -13194,7 +13194,7 @@
         <v>104.91771863846503</v>
       </c>
       <c r="O254" s="3">
-        <v>0</v>
+        <v>22.45508982035928</v>
       </c>
       <c r="P254" s="3">
         <v>142.89898046967949</v>
@@ -13244,7 +13244,7 @@
         <v>103.95956595683522</v>
       </c>
       <c r="O255" s="3">
-        <v>0</v>
+        <v>18.712574850299401</v>
       </c>
       <c r="P255" s="3">
         <v>143.70435451100983</v>
@@ -13294,7 +13294,7 @@
         <v>106.11540949050232</v>
       </c>
       <c r="O256" s="3">
-        <v>0</v>
+        <v>18.712574850299401</v>
       </c>
       <c r="P256" s="3">
         <v>140.13508319147769</v>
@@ -13344,7 +13344,7 @@
         <v>114.97832179557813</v>
       </c>
       <c r="O257" s="3">
-        <v>0</v>
+        <v>18.712574850299401</v>
       </c>
       <c r="P257" s="3">
         <v>147.74952867314627</v>
@@ -13394,7 +13394,7 @@
         <v>118.57139435168995</v>
       </c>
       <c r="O258" s="3">
-        <v>0</v>
+        <v>14.970059880239521</v>
       </c>
       <c r="P258" s="3">
         <v>147.80444053960062</v>
@@ -13444,7 +13444,7 @@
         <v>115.45739813639304</v>
       </c>
       <c r="O259" s="3">
-        <v>0</v>
+        <v>11.22754491017964</v>
       </c>
       <c r="P259" s="3">
         <v>145.55305401497264</v>
@@ -13494,7 +13494,7 @@
         <v>106.35494766090977</v>
       </c>
       <c r="O260" s="3">
-        <v>0</v>
+        <v>3.7425149700598803</v>
       </c>
       <c r="P260" s="3">
         <v>139.34801310563213</v>
@@ -13794,7 +13794,7 @@
         <v>95.57572999257431</v>
       </c>
       <c r="O266" s="3">
-        <v>0</v>
+        <v>3.7425149700598803</v>
       </c>
       <c r="P266" s="3">
         <v>120.33020335694543</v>
@@ -13844,7 +13844,7 @@
         <v>97.492035355833949</v>
       </c>
       <c r="O267" s="3">
-        <v>0</v>
+        <v>11.22754491017964</v>
       </c>
       <c r="P267" s="3">
         <v>119.43330953819121</v>
@@ -13894,7 +13894,7 @@
         <v>95.57572999257431</v>
       </c>
       <c r="O268" s="3">
-        <v>0</v>
+        <v>11.22754491017964</v>
       </c>
       <c r="P268" s="3">
         <v>117.62121794519796</v>
@@ -13944,7 +13944,7 @@
         <v>95.815268162981766</v>
       </c>
       <c r="O269" s="3">
-        <v>0</v>
+        <v>11.22754491017964</v>
       </c>
       <c r="P269" s="3">
         <v>115.8274303076895</v>
@@ -13994,7 +13994,7 @@
         <v>89.108199391573052</v>
       </c>
       <c r="O270" s="3">
-        <v>0</v>
+        <v>11.22754491017964</v>
       </c>
       <c r="P270" s="3">
         <v>105.19283217103217</v>
@@ -14044,7 +14044,7 @@
         <v>85.036050494646318</v>
       </c>
       <c r="O271" s="3">
-        <v>0</v>
+        <v>22.45508982035928</v>
       </c>
       <c r="P271" s="3">
         <v>104.88166492779089</v>
@@ -14094,7 +14094,7 @@
         <v>86.233741346683587</v>
       </c>
       <c r="O272" s="3">
-        <v>0</v>
+        <v>22.45508982035928</v>
       </c>
       <c r="P272" s="3">
         <v>106.1812457672103</v>
@@ -14144,7 +14144,7 @@
         <v>91.024504754832677</v>
       </c>
       <c r="O273" s="3">
-        <v>0</v>
+        <v>22.45508982035928</v>
       </c>
       <c r="P273" s="3">
         <v>101.29408965277396</v>
@@ -14194,7 +14194,7 @@
         <v>89.826813902795408</v>
       </c>
       <c r="O274" s="3">
-        <v>0</v>
+        <v>14.970059880239521</v>
       </c>
       <c r="P274" s="3">
         <v>101.23917778631963</v>
@@ -14244,7 +14244,7 @@
         <v>90.545428414017778</v>
       </c>
       <c r="O275" s="3">
-        <v>0</v>
+        <v>14.970059880239521</v>
       </c>
       <c r="P275" s="3">
         <v>101.03783427598704</v>
@@ -14294,7 +14294,7 @@
         <v>89.826813902795408</v>
       </c>
       <c r="O276" s="3">
-        <v>3.7425149700598803</v>
+        <v>14.970059880239521</v>
       </c>
       <c r="P276" s="3">
         <v>99.152526861054668</v>
@@ -14344,7 +14344,7 @@
         <v>92.940810118092315</v>
       </c>
       <c r="O277" s="3">
-        <v>11.22754491017964</v>
+        <v>14.970059880239521</v>
       </c>
       <c r="P277" s="3">
         <v>104.80844910585178</v>
@@ -14394,7 +14394,7 @@
         <v>95.336191822166867</v>
       </c>
       <c r="O278" s="3">
-        <v>22.45508982035928</v>
+        <v>3.7425149700598803</v>
       </c>
       <c r="P278" s="3">
         <v>103.6736038657954</v>
@@ -14444,10 +14444,60 @@
         <v>95.57572999257431</v>
       </c>
       <c r="O279" s="3">
-        <v>37.425149700598801</v>
+        <v>3.7425149700598803</v>
       </c>
       <c r="P279" s="3">
         <v>102.68519026961727</v>
+      </c>
+    </row>
+    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A280" s="4">
+        <v>44175</v>
+      </c>
+      <c r="B280" s="3">
+        <v>132.39116309291748</v>
+      </c>
+      <c r="C280" s="3">
+        <v>51.94355467059129</v>
+      </c>
+      <c r="D280" s="3">
+        <v>26.870885395673788</v>
+      </c>
+      <c r="E280" s="3">
+        <v>114.04095837237318</v>
+      </c>
+      <c r="F280" s="3">
+        <v>112.50978345943126</v>
+      </c>
+      <c r="G280" s="3">
+        <v>77.343349837800929</v>
+      </c>
+      <c r="H280" s="3">
+        <v>123.65609574683887</v>
+      </c>
+      <c r="I280" s="3">
+        <v>47.248989741995651</v>
+      </c>
+      <c r="J280" s="3">
+        <v>136.72760235685149</v>
+      </c>
+      <c r="K280" s="3">
+        <v>97.512065052116611</v>
+      </c>
+      <c r="L280" s="3">
+        <v>0</v>
+      </c>
+      <c r="M280" s="3">
+        <v>0</v>
+      </c>
+      <c r="N280" s="3">
+        <v>86.952355857905957</v>
+      </c>
+      <c r="O280" s="3">
+        <v>14.970059880239521</v>
+      </c>
+      <c r="P280" s="3">
+        <v>102.22759138249776</v>
       </c>
     </row>
   </sheetData>

--- a/data/d_cases_by_hb.xlsx
+++ b/data/d_cases_by_hb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\githome\TTS-1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC19DEC-80EE-47D6-9DAC-7FDF22D28134}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6034D92-0D0F-4AD2-BFDA-43F64E06EE52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="2475" windowWidth="19875" windowHeight="11835" xr2:uid="{3A2DCE9A-1180-4B87-A40E-6C8795E2EB8B}"/>
+    <workbookView xWindow="-26020" yWindow="-4640" windowWidth="21600" windowHeight="11840" xr2:uid="{3A2DCE9A-1180-4B87-A40E-6C8795E2EB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1 - Cumulative cases" sheetId="1" r:id="rId1"/>
@@ -469,13 +469,13 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:Q280"/>
+  <dimension ref="A1:Q281"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B252" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C253" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B280" sqref="B280"/>
+      <selection pane="bottomRight" activeCell="J281" sqref="J281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14500,6 +14500,56 @@
         <v>102.22759138249776</v>
       </c>
     </row>
+    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A281" s="4">
+        <v>44176</v>
+      </c>
+      <c r="B281" s="3">
+        <v>145.38661468486029</v>
+      </c>
+      <c r="C281" s="3">
+        <v>56.272184226473897</v>
+      </c>
+      <c r="D281" s="3">
+        <v>24.855568990998254</v>
+      </c>
+      <c r="E281" s="3">
+        <v>118.3241868558426</v>
+      </c>
+      <c r="F281" s="3">
+        <v>108.27028437255413</v>
+      </c>
+      <c r="G281" s="3">
+        <v>84.684992316885783</v>
+      </c>
+      <c r="H281" s="3">
+        <v>122.64182838596254</v>
+      </c>
+      <c r="I281" s="3">
+        <v>20.826857320484923</v>
+      </c>
+      <c r="J281" s="3">
+        <v>130.53331318930353</v>
+      </c>
+      <c r="K281" s="3">
+        <v>106.21653187597788</v>
+      </c>
+      <c r="L281" s="3">
+        <v>0</v>
+      </c>
+      <c r="M281" s="3">
+        <v>0</v>
+      </c>
+      <c r="N281" s="3">
+        <v>86.473279517091044</v>
+      </c>
+      <c r="O281" s="3">
+        <v>14.970059880239521</v>
+      </c>
+      <c r="P281" s="3">
+        <v>102.86822982446506</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>

--- a/data/d_cases_by_hb.xlsx
+++ b/data/d_cases_by_hb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\githome\TTS-1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6034D92-0D0F-4AD2-BFDA-43F64E06EE52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDEB4BA-3173-47E3-92B7-AD0A3A05E09F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26020" yWindow="-4640" windowWidth="21600" windowHeight="11840" xr2:uid="{3A2DCE9A-1180-4B87-A40E-6C8795E2EB8B}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="14775" windowHeight="11835" xr2:uid="{3A2DCE9A-1180-4B87-A40E-6C8795E2EB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1 - Cumulative cases" sheetId="1" r:id="rId1"/>
@@ -469,13 +469,13 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:Q281"/>
+  <dimension ref="A1:Q284"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C253" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B264" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J281" sqref="J281"/>
+      <selection pane="bottomRight" activeCell="A284" sqref="A284:P284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14550,6 +14550,156 @@
         <v>102.86822982446506</v>
       </c>
     </row>
+    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A282" s="4">
+        <v>44177</v>
+      </c>
+      <c r="B282" s="3">
+        <v>152.15507905566386</v>
+      </c>
+      <c r="C282" s="3">
+        <v>72.720976538827813</v>
+      </c>
+      <c r="D282" s="3">
+        <v>24.855568990998254</v>
+      </c>
+      <c r="E282" s="3">
+        <v>132.2446794271182</v>
+      </c>
+      <c r="F282" s="3">
+        <v>110.22697625880511</v>
+      </c>
+      <c r="G282" s="3">
+        <v>86.392351032952021</v>
+      </c>
+      <c r="H282" s="3">
+        <v>129.9107444722429</v>
+      </c>
+      <c r="I282" s="3">
+        <v>20.516008703761269</v>
+      </c>
+      <c r="J282" s="3">
+        <v>135.67004079166037</v>
+      </c>
+      <c r="K282" s="3">
+        <v>105.55543312986183</v>
+      </c>
+      <c r="L282" s="3">
+        <v>0</v>
+      </c>
+      <c r="M282" s="3">
+        <v>0</v>
+      </c>
+      <c r="N282" s="3">
+        <v>101.32464608235323</v>
+      </c>
+      <c r="O282" s="3">
+        <v>14.970059880239521</v>
+      </c>
+      <c r="P282" s="3">
+        <v>108.121465048597</v>
+      </c>
+    </row>
+    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A283" s="4">
+        <v>44178</v>
+      </c>
+      <c r="B283" s="3">
+        <v>154.86246480398526</v>
+      </c>
+      <c r="C283" s="3">
+        <v>82.243961561769538</v>
+      </c>
+      <c r="D283" s="3">
+        <v>22.84025258632272</v>
+      </c>
+      <c r="E283" s="3">
+        <v>135.45710078972024</v>
+      </c>
+      <c r="F283" s="3">
+        <v>111.53143751630577</v>
+      </c>
+      <c r="G283" s="3">
+        <v>91.855898924364013</v>
+      </c>
+      <c r="H283" s="3">
+        <v>128.98099939143958</v>
+      </c>
+      <c r="I283" s="3">
+        <v>24.867889337892446</v>
+      </c>
+      <c r="J283" s="3">
+        <v>134.15923855567306</v>
+      </c>
+      <c r="K283" s="3">
+        <v>113.81916745631239</v>
+      </c>
+      <c r="L283" s="3">
+        <v>0</v>
+      </c>
+      <c r="M283" s="3">
+        <v>0</v>
+      </c>
+      <c r="N283" s="3">
+        <v>106.83402400172467</v>
+      </c>
+      <c r="O283" s="3">
+        <v>14.970059880239521</v>
+      </c>
+      <c r="P283" s="3">
+        <v>110.99518605970751</v>
+      </c>
+    </row>
+    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A284" s="4">
+        <v>44179</v>
+      </c>
+      <c r="B284" s="3">
+        <v>161.63092917478883</v>
+      </c>
+      <c r="C284" s="3">
+        <v>86.572591117652152</v>
+      </c>
+      <c r="D284" s="3">
+        <v>20.824936181647185</v>
+      </c>
+      <c r="E284" s="3">
+        <v>132.78008298755188</v>
+      </c>
+      <c r="F284" s="3">
+        <v>104.03078528567701</v>
+      </c>
+      <c r="G284" s="3">
+        <v>91.514427181150765</v>
+      </c>
+      <c r="H284" s="3">
+        <v>131.93927919399553</v>
+      </c>
+      <c r="I284" s="3">
+        <v>26.422132421510724</v>
+      </c>
+      <c r="J284" s="3">
+        <v>132.95059676688322</v>
+      </c>
+      <c r="K284" s="3">
+        <v>116.13301306771855</v>
+      </c>
+      <c r="L284" s="3">
+        <v>0</v>
+      </c>
+      <c r="M284" s="3">
+        <v>0</v>
+      </c>
+      <c r="N284" s="3">
+        <v>109.22940570579922</v>
+      </c>
+      <c r="O284" s="3">
+        <v>14.970059880239521</v>
+      </c>
+      <c r="P284" s="3">
+        <v>112.03851152233997</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>

--- a/data/d_cases_by_hb.xlsx
+++ b/data/d_cases_by_hb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\githome\TTS-1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDEB4BA-3173-47E3-92B7-AD0A3A05E09F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F55FEC1-82EE-4337-A3CE-3A8570819EFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="14775" windowHeight="11835" xr2:uid="{3A2DCE9A-1180-4B87-A40E-6C8795E2EB8B}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="18240" windowHeight="11835" xr2:uid="{3A2DCE9A-1180-4B87-A40E-6C8795E2EB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1 - Cumulative cases" sheetId="1" r:id="rId1"/>
@@ -469,13 +469,13 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:Q284"/>
+  <dimension ref="A1:Q289"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B264" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A284" sqref="A284:P284"/>
+      <selection pane="bottomRight" sqref="A1:P289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14700,6 +14700,256 @@
         <v>112.03851152233997</v>
       </c>
     </row>
+    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A285" s="4">
+        <v>44180</v>
+      </c>
+      <c r="B285" s="3">
+        <v>160.54797487546026</v>
+      </c>
+      <c r="C285" s="3">
+        <v>89.169768851181715</v>
+      </c>
+      <c r="D285" s="3">
+        <v>22.168480451430874</v>
+      </c>
+      <c r="E285" s="3">
+        <v>138.66952215232232</v>
+      </c>
+      <c r="F285" s="3">
+        <v>103.3785546569267</v>
+      </c>
+      <c r="G285" s="3">
+        <v>98.856069660235619</v>
+      </c>
+      <c r="H285" s="3">
+        <v>133.37615795523701</v>
+      </c>
+      <c r="I285" s="3">
+        <v>28.598072738576313</v>
+      </c>
+      <c r="J285" s="3">
+        <v>138.54056504003626</v>
+      </c>
+      <c r="K285" s="3">
+        <v>119.98942242006214</v>
+      </c>
+      <c r="L285" s="3">
+        <v>0</v>
+      </c>
+      <c r="M285" s="3">
+        <v>0</v>
+      </c>
+      <c r="N285" s="3">
+        <v>107.31310034253958</v>
+      </c>
+      <c r="O285" s="3">
+        <v>14.970059880239521</v>
+      </c>
+      <c r="P285" s="3">
+        <v>114.83901671151136</v>
+      </c>
+    </row>
+    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A286" s="4">
+        <v>44181</v>
+      </c>
+      <c r="B286" s="3">
+        <v>167.58717782109596</v>
+      </c>
+      <c r="C286" s="3">
+        <v>91.766946584711278</v>
+      </c>
+      <c r="D286" s="3">
+        <v>19.481391911863497</v>
+      </c>
+      <c r="E286" s="3">
+        <v>133.5831883282024</v>
+      </c>
+      <c r="F286" s="3">
+        <v>96.856248369423426</v>
+      </c>
+      <c r="G286" s="3">
+        <v>96.124295714529623</v>
+      </c>
+      <c r="H286" s="3">
+        <v>123.74061802691189</v>
+      </c>
+      <c r="I286" s="3">
+        <v>29.530618588747281</v>
+      </c>
+      <c r="J286" s="3">
+        <v>130.23115274210605</v>
+      </c>
+      <c r="K286" s="3">
+        <v>118.88759117653539</v>
+      </c>
+      <c r="L286" s="3">
+        <v>0</v>
+      </c>
+      <c r="M286" s="3">
+        <v>0</v>
+      </c>
+      <c r="N286" s="3">
+        <v>106.59448583131721</v>
+      </c>
+      <c r="O286" s="3">
+        <v>14.970059880239521</v>
+      </c>
+      <c r="P286" s="3">
+        <v>111.03179397067706</v>
+      </c>
+    </row>
+    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A287" s="4">
+        <v>44182</v>
+      </c>
+      <c r="B287" s="3">
+        <v>162.71388347411738</v>
+      </c>
+      <c r="C287" s="3">
+        <v>91.766946584711278</v>
+      </c>
+      <c r="D287" s="3">
+        <v>24.183796856106408</v>
+      </c>
+      <c r="E287" s="3">
+        <v>128.49685450408245</v>
+      </c>
+      <c r="F287" s="3">
+        <v>84.789981737542391</v>
+      </c>
+      <c r="G287" s="3">
+        <v>102.95373057879461</v>
+      </c>
+      <c r="H287" s="3">
+        <v>124.24775170735006</v>
+      </c>
+      <c r="I287" s="3">
+        <v>34.193347839602112</v>
+      </c>
+      <c r="J287" s="3">
+        <v>126.15198670494033</v>
+      </c>
+      <c r="K287" s="3">
+        <v>117.23484431124528</v>
+      </c>
+      <c r="L287" s="3">
+        <v>0</v>
+      </c>
+      <c r="M287" s="3">
+        <v>0</v>
+      </c>
+      <c r="N287" s="3">
+        <v>101.08510791194577</v>
+      </c>
+      <c r="O287" s="3">
+        <v>0</v>
+      </c>
+      <c r="P287" s="3">
+        <v>109.65899730931855</v>
+      </c>
+    </row>
+    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A288" s="4">
+        <v>44183</v>
+      </c>
+      <c r="B288" s="3">
+        <v>144.84513753519602</v>
+      </c>
+      <c r="C288" s="3">
+        <v>100.42420569647649</v>
+      </c>
+      <c r="D288" s="3">
+        <v>28.886201800349323</v>
+      </c>
+      <c r="E288" s="3">
+        <v>118.05648507562576</v>
+      </c>
+      <c r="F288" s="3">
+        <v>83.159405165666584</v>
+      </c>
+      <c r="G288" s="3">
+        <v>100.05122076148199</v>
+      </c>
+      <c r="H288" s="3">
+        <v>117.99310298194604</v>
+      </c>
+      <c r="I288" s="3">
+        <v>34.815045073049426</v>
+      </c>
+      <c r="J288" s="3">
+        <v>117.08717328901646</v>
+      </c>
+      <c r="K288" s="3">
+        <v>113.04788558584367</v>
+      </c>
+      <c r="L288" s="3">
+        <v>0</v>
+      </c>
+      <c r="M288" s="3">
+        <v>0</v>
+      </c>
+      <c r="N288" s="3">
+        <v>106.59448583131721</v>
+      </c>
+      <c r="O288" s="3">
+        <v>0</v>
+      </c>
+      <c r="P288" s="3">
+        <v>104.95488074973002</v>
+      </c>
+    </row>
+    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A289" s="4">
+        <v>44184</v>
+      </c>
+      <c r="B289" s="3">
+        <v>138.34741173922461</v>
+      </c>
+      <c r="C289" s="3">
+        <v>87.438317028828678</v>
+      </c>
+      <c r="D289" s="3">
+        <v>26.199113260781942</v>
+      </c>
+      <c r="E289" s="3">
+        <v>100.38816758131442</v>
+      </c>
+      <c r="F289" s="3">
+        <v>75.332637620662666</v>
+      </c>
+      <c r="G289" s="3">
+        <v>94.41693699846337</v>
+      </c>
+      <c r="H289" s="3">
+        <v>103.11718168909324</v>
+      </c>
+      <c r="I289" s="3">
+        <v>34.193347839602112</v>
+      </c>
+      <c r="J289" s="3">
+        <v>112.55476658105454</v>
+      </c>
+      <c r="K289" s="3">
+        <v>108.6405606117367</v>
+      </c>
+      <c r="L289" s="3">
+        <v>0</v>
+      </c>
+      <c r="M289" s="3">
+        <v>0</v>
+      </c>
+      <c r="N289" s="3">
+        <v>87.43143219872087</v>
+      </c>
+      <c r="O289" s="3">
+        <v>0</v>
+      </c>
+      <c r="P289" s="3">
+        <v>95.949334651218123</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>

--- a/data/d_cases_by_hb.xlsx
+++ b/data/d_cases_by_hb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\githome\TTS-1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F55FEC1-82EE-4337-A3CE-3A8570819EFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6888A0B1-7624-4C85-AD79-12A2EAAEECF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="18240" windowHeight="11835" xr2:uid="{3A2DCE9A-1180-4B87-A40E-6C8795E2EB8B}"/>
+    <workbookView xWindow="5625" yWindow="1590" windowWidth="21600" windowHeight="11835" xr2:uid="{3A2DCE9A-1180-4B87-A40E-6C8795E2EB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1 - Cumulative cases" sheetId="1" r:id="rId1"/>
@@ -469,13 +469,13 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:Q289"/>
+  <dimension ref="A1:Q294"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B264" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B268" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" sqref="A1:P289"/>
+      <selection pane="bottomRight" activeCell="C274" sqref="C274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14950,6 +14950,256 @@
         <v>95.949334651218123</v>
       </c>
     </row>
+    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A290" s="4">
+        <v>44185</v>
+      </c>
+      <c r="B290" s="3">
+        <v>142.40849036170673</v>
+      </c>
+      <c r="C290" s="3">
+        <v>84.841139295299115</v>
+      </c>
+      <c r="D290" s="3">
+        <v>31.573290339916699</v>
+      </c>
+      <c r="E290" s="3">
+        <v>96.640342658278684</v>
+      </c>
+      <c r="F290" s="3">
+        <v>77.615444821288804</v>
+      </c>
+      <c r="G290" s="3">
+        <v>102.61225883558136</v>
+      </c>
+      <c r="H290" s="3">
+        <v>111.14679829603084</v>
+      </c>
+      <c r="I290" s="3">
+        <v>35.747590923220393</v>
+      </c>
+      <c r="J290" s="3">
+        <v>108.17344009669134</v>
+      </c>
+      <c r="K290" s="3">
+        <v>109.08129310914741</v>
+      </c>
+      <c r="L290" s="3">
+        <v>0</v>
+      </c>
+      <c r="M290" s="3">
+        <v>0</v>
+      </c>
+      <c r="N290" s="3">
+        <v>86.952355857905957</v>
+      </c>
+      <c r="O290" s="3">
+        <v>0</v>
+      </c>
+      <c r="P290" s="3">
+        <v>98.40206468617869</v>
+      </c>
+    </row>
+    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A291" s="4">
+        <v>44186</v>
+      </c>
+      <c r="B291" s="3">
+        <v>149.1769547325103</v>
+      </c>
+      <c r="C291" s="3">
+        <v>99.55847978529998</v>
+      </c>
+      <c r="D291" s="3">
+        <v>40.306328093510679</v>
+      </c>
+      <c r="E291" s="3">
+        <v>107.08071208673537</v>
+      </c>
+      <c r="F291" s="3">
+        <v>96.204017740673109</v>
+      </c>
+      <c r="G291" s="3">
+        <v>116.44186443571795</v>
+      </c>
+      <c r="H291" s="3">
+        <v>124.078707147204</v>
+      </c>
+      <c r="I291" s="3">
+        <v>39.788622940627917</v>
+      </c>
+      <c r="J291" s="3">
+        <v>129.9289922949086</v>
+      </c>
+      <c r="K291" s="3">
+        <v>124.72729676722713</v>
+      </c>
+      <c r="L291" s="3">
+        <v>0</v>
+      </c>
+      <c r="M291" s="3">
+        <v>4.3630017452006982</v>
+      </c>
+      <c r="N291" s="3">
+        <v>107.7921766833545</v>
+      </c>
+      <c r="O291" s="3">
+        <v>0</v>
+      </c>
+      <c r="P291" s="3">
+        <v>112.49611040945949</v>
+      </c>
+    </row>
+    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A292" s="4">
+        <v>44187</v>
+      </c>
+      <c r="B292" s="3">
+        <v>154.59172622915312</v>
+      </c>
+      <c r="C292" s="3">
+        <v>106.48428707471214</v>
+      </c>
+      <c r="D292" s="3">
+        <v>53.741770791347577</v>
+      </c>
+      <c r="E292" s="3">
+        <v>110.82853700977111</v>
+      </c>
+      <c r="F292" s="3">
+        <v>96.204017740673109</v>
+      </c>
+      <c r="G292" s="3">
+        <v>131.12514939388765</v>
+      </c>
+      <c r="H292" s="3">
+        <v>142.25099736290485</v>
+      </c>
+      <c r="I292" s="3">
+        <v>42.897109107864473</v>
+      </c>
+      <c r="J292" s="3">
+        <v>132.04411542529084</v>
+      </c>
+      <c r="K292" s="3">
+        <v>130.0160867361555</v>
+      </c>
+      <c r="L292" s="3">
+        <v>0</v>
+      </c>
+      <c r="M292" s="3">
+        <v>4.3630017452006982</v>
+      </c>
+      <c r="N292" s="3">
+        <v>116.65508898843031</v>
+      </c>
+      <c r="O292" s="3">
+        <v>0</v>
+      </c>
+      <c r="P292" s="3">
+        <v>121.11727344279099</v>
+      </c>
+    </row>
+    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A293" s="4">
+        <v>44188</v>
+      </c>
+      <c r="B293" s="3">
+        <v>164.33831492311023</v>
+      </c>
+      <c r="C293" s="3">
+        <v>104.75283525235911</v>
+      </c>
+      <c r="D293" s="3">
+        <v>57.772403600698645</v>
+      </c>
+      <c r="E293" s="3">
+        <v>117.25337973497524</v>
+      </c>
+      <c r="F293" s="3">
+        <v>106.96582311505348</v>
+      </c>
+      <c r="G293" s="3">
+        <v>143.93033976438448</v>
+      </c>
+      <c r="H293" s="3">
+        <v>154.92933937385894</v>
+      </c>
+      <c r="I293" s="3">
+        <v>43.51880634131178</v>
+      </c>
+      <c r="J293" s="3">
+        <v>150.47590270433599</v>
+      </c>
+      <c r="K293" s="3">
+        <v>131.88919985015096</v>
+      </c>
+      <c r="L293" s="3">
+        <v>0</v>
+      </c>
+      <c r="M293" s="3">
+        <v>8.7260034904013963</v>
+      </c>
+      <c r="N293" s="3">
+        <v>125.75753946391357</v>
+      </c>
+      <c r="O293" s="3">
+        <v>0</v>
+      </c>
+      <c r="P293" s="3">
+        <v>130.28755514066589</v>
+      </c>
+    </row>
+    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A294" s="4">
+        <v>44189</v>
+      </c>
+      <c r="B294" s="3">
+        <v>174.35564219189951</v>
+      </c>
+      <c r="C294" s="3">
+        <v>114.27582027530084</v>
+      </c>
+      <c r="D294" s="3">
+        <v>61.131264275157868</v>
+      </c>
+      <c r="E294" s="3">
+        <v>121.53660821844466</v>
+      </c>
+      <c r="F294" s="3">
+        <v>105.33524654317766</v>
+      </c>
+      <c r="G294" s="3">
+        <v>148.19873655455012</v>
+      </c>
+      <c r="H294" s="3">
+        <v>164.48035702211104</v>
+      </c>
+      <c r="I294" s="3">
+        <v>46.316443891824683</v>
+      </c>
+      <c r="J294" s="3">
+        <v>166.33932618220274</v>
+      </c>
+      <c r="K294" s="3">
+        <v>138.50018731131141</v>
+      </c>
+      <c r="L294" s="3">
+        <v>0</v>
+      </c>
+      <c r="M294" s="3">
+        <v>17.452006980802793</v>
+      </c>
+      <c r="N294" s="3">
+        <v>144.44151675569503</v>
+      </c>
+      <c r="O294" s="3">
+        <v>0</v>
+      </c>
+      <c r="P294" s="3">
+        <v>138.63415884172571</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
